--- a/experiments/exp_4/grouped_results.xlsx
+++ b/experiments/exp_4/grouped_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -81,18 +81,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +529,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -560,135 +560,135 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CifarAbsReLU-LS</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
+          <t>CifarJOVFPNet-RNBasic</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>5.888000000000003</v>
+        <v>6.226000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1347961423780377</v>
+        <v>0.2704255905050396</v>
       </c>
       <c r="F5" t="n">
-        <v>5.769999999999998</v>
+        <v>5.920000000000003</v>
       </c>
       <c r="G5" t="n">
-        <v>6.014</v>
+        <v>6.306</v>
       </c>
       <c r="H5" t="n">
-        <v>0.135388330368612</v>
+        <v>0.308593583860713</v>
       </c>
       <c r="I5" t="n">
-        <v>801722</v>
+        <v>799930</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CifarAbsReLU-LS-realAbs</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>CifarJOVFPNet</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>5.888000000000003</v>
+        <v>6.23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1347961423780382</v>
+        <v>0.234520787991172</v>
       </c>
       <c r="F6" t="n">
-        <v>5.769999999999998</v>
+        <v>5.969999999999998</v>
       </c>
       <c r="G6" t="n">
-        <v>6.014</v>
+        <v>6.324</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1353883303686119</v>
+        <v>0.2803212442894758</v>
       </c>
       <c r="I6" t="n">
-        <v>801722</v>
+        <v>606842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CifarJOVFPNet-RNBasic</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>CifarPyrResNet</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>6.226000000000001</v>
+        <v>6.234</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2704255905050396</v>
+        <v>0.1847430648224723</v>
       </c>
       <c r="F7" t="n">
-        <v>5.920000000000003</v>
+        <v>5.959999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>6.306</v>
+        <v>6.358000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.308593583860713</v>
+        <v>0.2389979079406383</v>
       </c>
       <c r="I7" t="n">
-        <v>799930</v>
+        <v>854938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CifarJOVFPNet</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
+          <t>CifarJOVFPNet-RNBasic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>6.23</v>
+        <v>6.382</v>
       </c>
       <c r="E8" t="n">
-        <v>0.234520787991172</v>
+        <v>0.1996747355075251</v>
       </c>
       <c r="F8" t="n">
-        <v>5.969999999999998</v>
+        <v>6.059999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>6.324</v>
+        <v>6.510000000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2803212442894758</v>
+        <v>0.2092844953645615</v>
       </c>
       <c r="I8" t="n">
-        <v>606842</v>
+        <v>605498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -696,127 +696,125 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>6.234</v>
+        <v>6.409999999999998</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1847430648224723</v>
+        <v>0.1828934115817171</v>
       </c>
       <c r="F9" t="n">
-        <v>5.959999999999999</v>
+        <v>6.230000000000002</v>
       </c>
       <c r="G9" t="n">
-        <v>6.358000000000001</v>
+        <v>6.545999999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2389979079406383</v>
+        <v>0.218242983850568</v>
       </c>
       <c r="I9" t="n">
-        <v>854938</v>
+        <v>660058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CifarAbsReLU-LS</t>
+          <t>CifarJOVFPNet</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>6.261999999999999</v>
+        <v>6.786000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1822635454499891</v>
+        <v>0.2517538480341473</v>
       </c>
       <c r="F10" t="n">
-        <v>6.079999999999997</v>
+        <v>6.520000000000002</v>
       </c>
       <c r="G10" t="n">
-        <v>6.440000000000002</v>
+        <v>6.938000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2097617696340297</v>
+        <v>0.2745359721420876</v>
       </c>
       <c r="I10" t="n">
-        <v>606842</v>
+        <v>411962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CifarAbsReLU-LS-realAbs</t>
+          <t>CifarJOVFPNet-RNBasic</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.261999999999999</v>
+        <v>6.802</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1822635454499894</v>
+        <v>0.1010940156488017</v>
       </c>
       <c r="F11" t="n">
-        <v>6.079999999999997</v>
+        <v>6.65</v>
       </c>
       <c r="G11" t="n">
-        <v>6.440000000000002</v>
+        <v>6.982000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2097617696340294</v>
+        <v>0.183902147893929</v>
       </c>
       <c r="I11" t="n">
-        <v>606842</v>
+        <v>411066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CifarJOVFPNet-RNBasic</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>CifarResNet</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>6.382</v>
+        <v>6.807999999999998</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1996747355075251</v>
+        <v>0.2403539057306981</v>
       </c>
       <c r="F12" t="n">
-        <v>6.059999999999999</v>
+        <v>6.599999999999994</v>
       </c>
       <c r="G12" t="n">
-        <v>6.510000000000002</v>
+        <v>6.934</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2092844953645615</v>
+        <v>0.2335165946993938</v>
       </c>
       <c r="I12" t="n">
-        <v>605498</v>
+        <v>853018</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -824,731 +822,213 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>6.409999999999998</v>
+        <v>7.020000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1828934115817171</v>
+        <v>0.2101190138945064</v>
       </c>
       <c r="F13" t="n">
-        <v>6.230000000000002</v>
+        <v>6.820000000000004</v>
       </c>
       <c r="G13" t="n">
-        <v>6.545999999999998</v>
+        <v>7.164</v>
       </c>
       <c r="H13" t="n">
-        <v>0.218242983850568</v>
+        <v>0.1778482499211079</v>
       </c>
       <c r="I13" t="n">
-        <v>660058</v>
+        <v>465178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CifarJOVFPNet-NoNorm</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>CifarResNet</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>6.464</v>
+        <v>7.107999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2855345863463844</v>
+        <v>0.2833196075106676</v>
       </c>
       <c r="F14" t="n">
-        <v>6.069999999999998</v>
+        <v>6.920000000000004</v>
       </c>
       <c r="G14" t="n">
-        <v>6.575999999999999</v>
+        <v>7.305999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2700555498411378</v>
+        <v>0.3505424368033043</v>
       </c>
       <c r="I14" t="n">
-        <v>801722</v>
+        <v>658586</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CifarAbsReLU-LS-NoNorm</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>CifarResNet</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>6.487999999999998</v>
+        <v>7.597999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1813008549345534</v>
+        <v>0.4213312236234084</v>
       </c>
       <c r="F15" t="n">
-        <v>6.299999999999994</v>
+        <v>7.169999999999997</v>
       </c>
       <c r="G15" t="n">
-        <v>6.598000000000001</v>
+        <v>7.674000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1676901905300401</v>
+        <v>0.4742678568066799</v>
       </c>
       <c r="I15" t="n">
-        <v>801722</v>
+        <v>464154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CifarJOVFPNet-NoNorm</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>CifarJOVFPNet</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>6.617999999999999</v>
+        <v>7.947999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1398928161129115</v>
+        <v>0.2437621791829075</v>
       </c>
       <c r="F16" t="n">
-        <v>6.389999999999995</v>
+        <v>7.650000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>6.761999999999999</v>
+        <v>8.148000000000003</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1721046193453288</v>
+        <v>0.3151507575748465</v>
       </c>
       <c r="I16" t="n">
-        <v>606842</v>
+        <v>217082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CifarAbsReLU-LS-NoNorm</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>CifarResNet</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>6.708</v>
+        <v>8.01</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1832211778152262</v>
+        <v>0.202484567313165</v>
       </c>
       <c r="F17" t="n">
-        <v>6.520000000000003</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>6.806</v>
+        <v>8.132</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2236738697300124</v>
+        <v>0.2032732151563499</v>
       </c>
       <c r="I17" t="n">
-        <v>606842</v>
+        <v>269722</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CifarJOVFPNet</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
+          <t>CifarJOVFPNet-RNBasic</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>6.786000000000001</v>
+        <v>8.045999999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2517538480341473</v>
+        <v>0.05770615218501328</v>
       </c>
       <c r="F18" t="n">
-        <v>6.520000000000002</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>6.938000000000002</v>
+        <v>8.234000000000005</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2745359721420876</v>
+        <v>0.08905054744357334</v>
       </c>
       <c r="I18" t="n">
-        <v>411962</v>
+        <v>216634</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CifarJOVFPNet-RNBasic</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>CifarPyrResNet</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6.802</v>
+        <v>8.143999999999998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1010940156488017</v>
+        <v>0.1357571360923616</v>
       </c>
       <c r="F19" t="n">
-        <v>6.65</v>
+        <v>7.989999999999998</v>
       </c>
       <c r="G19" t="n">
-        <v>6.982000000000002</v>
+        <v>8.326000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.183902147893929</v>
+        <v>0.1915202339179855</v>
       </c>
       <c r="I19" t="n">
-        <v>411066</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CifarResNet</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.807999999999998</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.2403539057306981</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6.599999999999994</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6.934</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.2335165946993938</v>
-      </c>
-      <c r="I20" t="n">
-        <v>853018</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CifarAbsReLU-LS-realAbs</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>6.938</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1557883179188955</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6.740000000000002</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7.042000000000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.1402497771834239</v>
-      </c>
-      <c r="I21" t="n">
-        <v>411962</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CifarAbsReLU-LS</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.938</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1557883179188955</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6.740000000000002</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7.042000000000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1402497771834236</v>
-      </c>
-      <c r="I22" t="n">
-        <v>411962</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CifarPyrResNet</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7.020000000000001</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.2101190138945064</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6.820000000000004</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7.164</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.1778482499211079</v>
-      </c>
-      <c r="I23" t="n">
-        <v>465178</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CifarResNet</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7.107999999999999</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2833196075106676</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6.920000000000004</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.305999999999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.3505424368033043</v>
-      </c>
-      <c r="I24" t="n">
-        <v>658586</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CifarAbsReLU-LS-NoNorm</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>7.152000000000001</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.07496665925596442</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7.050000000000001</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.276000000000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1559807680452931</v>
-      </c>
-      <c r="I25" t="n">
-        <v>411962</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CifarResNet</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7.597999999999999</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.4213312236234084</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.169999999999997</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7.674000000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.4742678568066799</v>
-      </c>
-      <c r="I26" t="n">
-        <v>464154</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CifarJOVFPNet-NoNorm</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>7.710000000000001</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.2871410803072248</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7.469999999999999</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7.790000000000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.3150396800404662</v>
-      </c>
-      <c r="I27" t="n">
-        <v>411962</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CifarJOVFPNet</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7.947999999999999</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.2437621791829075</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7.650000000000001</v>
-      </c>
-      <c r="G28" t="n">
-        <v>8.148000000000003</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.3151507575748465</v>
-      </c>
-      <c r="I28" t="n">
-        <v>217082</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CifarResNet</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.202484567313165</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.850000000000001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>8.132</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.2032732151563499</v>
-      </c>
-      <c r="I29" t="n">
-        <v>269722</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CifarJOVFPNet-RNBasic</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>8.045999999999998</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.05770615218501328</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7.969999999999999</v>
-      </c>
-      <c r="G30" t="n">
-        <v>8.234000000000005</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.08905054744357334</v>
-      </c>
-      <c r="I30" t="n">
-        <v>216634</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CifarPyrResNet</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>8.143999999999998</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1357571360923616</v>
-      </c>
-      <c r="F31" t="n">
-        <v>7.989999999999998</v>
-      </c>
-      <c r="G31" t="n">
-        <v>8.326000000000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1915202339179855</v>
-      </c>
-      <c r="I31" t="n">
         <v>270298</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CifarAbsReLU-LS-realAbs</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>8.179999999999998</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.191702895126805</v>
-      </c>
-      <c r="F32" t="n">
-        <v>8.020000000000005</v>
-      </c>
-      <c r="G32" t="n">
-        <v>8.384000000000004</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.1932097306038204</v>
-      </c>
-      <c r="I32" t="n">
-        <v>217082</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CifarAbsReLU-LS</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8.179999999999998</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.191702895126805</v>
-      </c>
-      <c r="F33" t="n">
-        <v>8.020000000000005</v>
-      </c>
-      <c r="G33" t="n">
-        <v>8.384000000000004</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.1932097306038202</v>
-      </c>
-      <c r="I33" t="n">
-        <v>217082</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CifarAbsReLU-LS-NoNorm</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>8.452</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.1845806056984295</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8.220000000000006</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8.580000000000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.1646207763315442</v>
-      </c>
-      <c r="I34" t="n">
-        <v>217082</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>CifarJOVFPNet-NoNorm</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>8.984000000000002</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.1965451602049752</v>
-      </c>
-      <c r="F35" t="n">
-        <v>8.740000000000004</v>
-      </c>
-      <c r="G35" t="n">
-        <v>9.231999999999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.2070507184242544</v>
-      </c>
-      <c r="I35" t="n">
-        <v>217082</v>
       </c>
     </row>
   </sheetData>
@@ -1556,6 +1036,6 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>